--- a/DW+P5+-+Modele+plan+tests+acceptation.xlsx
+++ b/DW+P5+-+Modele+plan+tests+acceptation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t xml:space="preserve">Fonctionnalité</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Affichage de l'ensemble des produits</t>
   </si>
   <si>
-    <t xml:space="preserve">OK / Description erreur</t>
+    <t xml:space="preserve">OK</t>
   </si>
   <si>
     <t xml:space="preserve">Une page produit montrant (de manière dynamique) l’article choisie</t>
@@ -58,13 +58,127 @@
     <t xml:space="preserve">cliquer sur le produit voulu</t>
   </si>
   <si>
-    <t xml:space="preserve">Redirection sur la page produit et affichage du produit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un formulaire avec different champs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
+    <t xml:space="preserve">Affichage du produit spécifique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de l’article au panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panier vide, naviguer sur la page produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisir une quantité et une couleur et cliquer sur le bouton “ajouter au panier”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirection sur la page panier et affichade du bon produit avec la bonne couleur et les bonnes quantités et “Total (X articles) : Y €”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout d’un produit avec une quantité négative ou nul sur la page panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantité de 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sir bouton quantité ou entrer manuellement une quantité nulle ou négative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le champ quantité reste à 1 avec le prix mise à jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout d’un produit déjà ajouté au panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produit en question déjà dans le panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur le meme article sur la page produit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage d’un seul produit avec la quantité adéquate mise à jour. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout d’un produit déjà ajouté avec des couleurs diférentes au panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur le meme article sur la page produit mais en choisisant une couleur différente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage de deux produits avec leurs quantités respectives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un panier vide par default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panier vide / localstorage vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur panier dans le menu de navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage de la page panier vide et “Total (0 articles) : 0 €”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier la quantité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur le bouton ou rentrer une valeur manuellement pour changer la quantité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement de la quantité en positif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer un produit du panier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panier avec un ou des produits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliquer sur bouton supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supression du produit en question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un panier avec des produits différents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panier remplis de produits différents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage de la page panier avec plusieurs produits ayant la bonne quantité et les bonnes couleurs et “Total (X articles) : Y €”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soumission d’un formulaire valide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire avec champs vide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir les champs avec les bonnes valeurs (voir spécifications fonctionnelles) et cliquer sur commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirection sur la page confirmation avec numéro de commande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire avec des erreurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir champs avec des valeurs incorrectes (voir spécifications fonctionnelles) et cliquer sur commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage des erreurs pour les champs incorrects et pas de redirection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction d’un formulaire invalide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formulaire avec champs invalides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir champs avec des valeurs correctes (voir spécifications fonctionnelles) et cliquer sur commander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disparition des messages d’erreurs des champs</t>
   </si>
 </sst>
 </file>
@@ -114,15 +228,16 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Montserrat"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -285,84 +400,92 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,236 +738,419 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="58.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="59.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="65.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="32.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="F3" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="C4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="32.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="32.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="48.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-    </row>
+      <c r="A22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
